--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori2/17/word_level_predictions_17.xlsx
@@ -13918,728 +13918,728 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
+      <c r="A260" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B260" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C260" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D260" t="n">
-        <v>0</v>
-      </c>
-      <c r="E260" t="inlineStr">
+      <c r="D260" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I260" t="b">
-        <v>1</v>
-      </c>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K260" t="b">
-        <v>1</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F260" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J260" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L260" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C261" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D261" t="n">
-        <v>1</v>
-      </c>
-      <c r="E261" t="inlineStr">
+      <c r="D261" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
+      <c r="F261" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I261" t="b">
-        <v>1</v>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K261" t="b">
-        <v>1</v>
-      </c>
-      <c r="L261" t="inlineStr">
+      <c r="G261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J261" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
+      <c r="A262" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="C262" s="2" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D262" t="n">
+      <c r="D262" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E262" t="inlineStr">
+      <c r="E262" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
+      <c r="F262" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K262" t="b">
-        <v>1</v>
-      </c>
-      <c r="L262" t="inlineStr">
+      <c r="G262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J262" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L262" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="n">
+      <c r="A263" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B263" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
+      <c r="C263" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D263" t="n">
+      <c r="D263" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E263" t="inlineStr">
+      <c r="E263" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
+      <c r="F263" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G263" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I263" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K263" t="b">
-        <v>1</v>
-      </c>
-      <c r="L263" t="inlineStr">
+      <c r="G263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J263" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n">
+      <c r="A264" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B264" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
+      <c r="C264" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D264" t="n">
+      <c r="D264" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E264" t="inlineStr">
+      <c r="E264" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
+      <c r="F264" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
+      <c r="G264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J264" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
+      <c r="A265" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B265" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
+      <c r="C265" s="2" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D265" t="n">
+      <c r="D265" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E265" t="inlineStr">
+      <c r="E265" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
+      <c r="F265" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K265" t="b">
-        <v>1</v>
-      </c>
-      <c r="L265" t="inlineStr">
+      <c r="G265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="n">
+      <c r="A266" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B266" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
+      <c r="C266" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D266" t="n">
+      <c r="D266" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E266" t="inlineStr">
+      <c r="E266" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
+      <c r="F266" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
+      <c r="G266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J266" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="n">
+      <c r="A267" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B267" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
+      <c r="C267" s="2" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D267" t="n">
+      <c r="D267" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E267" t="inlineStr">
+      <c r="E267" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
+      <c r="F267" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G267" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K267" t="b">
-        <v>1</v>
-      </c>
-      <c r="L267" t="inlineStr">
+      <c r="G267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="n">
+      <c r="A268" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B268" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
+      <c r="C268" s="2" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D268" t="n">
+      <c r="D268" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E268" t="inlineStr">
+      <c r="E268" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
+      <c r="F268" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G268" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K268" t="b">
-        <v>1</v>
-      </c>
-      <c r="L268" t="inlineStr">
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="n">
+      <c r="A269" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B269" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
+      <c r="C269" s="2" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D269" t="n">
+      <c r="D269" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E269" t="inlineStr">
+      <c r="E269" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
+      <c r="F269" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G269" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K269" t="b">
-        <v>1</v>
-      </c>
-      <c r="L269" t="inlineStr">
+      <c r="G269" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J269" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L269" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n">
+      <c r="A270" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B270" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
+      <c r="C270" s="2" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D270" t="n">
+      <c r="D270" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E270" t="inlineStr">
+      <c r="E270" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
+      <c r="F270" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K270" t="b">
-        <v>1</v>
-      </c>
-      <c r="L270" t="inlineStr">
+      <c r="G270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n">
+      <c r="A271" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="B271" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
+      <c r="C271" s="2" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D271" t="n">
+      <c r="D271" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E271" t="inlineStr">
+      <c r="E271" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
+      <c r="F271" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G271" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I271" t="b">
-        <v>1</v>
-      </c>
-      <c r="J271" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K271" t="b">
-        <v>1</v>
-      </c>
-      <c r="L271" t="inlineStr">
+      <c r="G271" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J271" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L271" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="n">
+      <c r="A272" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B272" t="inlineStr">
+      <c r="B272" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr">
+      <c r="C272" s="2" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D272" t="n">
+      <c r="D272" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E272" t="inlineStr">
+      <c r="E272" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
+      <c r="F272" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G272" t="b">
-        <v>1</v>
-      </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I272" t="b">
-        <v>1</v>
-      </c>
-      <c r="J272" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K272" t="b">
-        <v>1</v>
-      </c>
-      <c r="L272" t="inlineStr">
+      <c r="G272" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H272" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I272" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J272" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K272" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L272" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="n">
+      <c r="A273" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B273" t="inlineStr">
+      <c r="B273" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr">
+      <c r="C273" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D273" t="n">
+      <c r="D273" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E273" t="inlineStr">
+      <c r="E273" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
+      <c r="F273" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G273" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I273" t="b">
-        <v>1</v>
-      </c>
-      <c r="J273" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K273" t="b">
-        <v>1</v>
-      </c>
-      <c r="L273" t="inlineStr">
+      <c r="G273" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J273" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L273" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -17593,11 +17593,11 @@
         </is>
       </c>
       <c r="I330" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K330" s="2" t="b">
@@ -17645,11 +17645,11 @@
         </is>
       </c>
       <c r="I331" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K331" s="2" t="b">
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F332" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G332" s="2" t="b">
@@ -17697,11 +17697,11 @@
         </is>
       </c>
       <c r="I332" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K332" s="2" t="b">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="L332" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17749,11 +17749,11 @@
         </is>
       </c>
       <c r="I333" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K333" s="2" t="b">
@@ -24029,7 +24029,7 @@
       </c>
       <c r="F454" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G454" s="2" t="b">
@@ -24053,7 +24053,7 @@
       </c>
       <c r="L454" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24081,7 +24081,7 @@
       </c>
       <c r="F455" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G455" s="2" t="b">
@@ -24105,7 +24105,7 @@
       </c>
       <c r="L455" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24133,7 +24133,7 @@
       </c>
       <c r="F456" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G456" s="2" t="b">
@@ -24157,7 +24157,7 @@
       </c>
       <c r="L456" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24185,7 +24185,7 @@
       </c>
       <c r="F457" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G457" s="2" t="b">
@@ -24209,7 +24209,7 @@
       </c>
       <c r="L457" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24289,7 +24289,7 @@
       </c>
       <c r="F459" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G459" s="2" t="b">
@@ -24313,7 +24313,7 @@
       </c>
       <c r="L459" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -25017,7 +25017,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G473" t="b">
@@ -25041,57 +25041,57 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="n">
+      <c r="A474" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B474" t="inlineStr">
+      <c r="B474" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now . Fly with caution .</t>
         </is>
       </c>
-      <c r="C474" t="inlineStr">
+      <c r="C474" s="2" t="inlineStr">
         <is>
           <t>Now</t>
         </is>
       </c>
-      <c r="D474" t="n">
+      <c r="D474" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E474" t="inlineStr">
+      <c r="E474" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F474" t="inlineStr">
+      <c r="F474" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G474" t="b">
-        <v>1</v>
-      </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I474" t="b">
-        <v>1</v>
-      </c>
-      <c r="J474" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K474" t="b">
-        <v>1</v>
-      </c>
-      <c r="L474" t="inlineStr">
+      <c r="G474" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H474" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I474" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J474" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K474" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L474" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori2/17/word_level_predictions_17.xlsx
@@ -13918,728 +13918,728 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
+      <c r="A260" t="n">
         <v>20</v>
       </c>
-      <c r="B260" s="2" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C260" s="2" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D260" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E260" s="2" t="inlineStr">
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F260" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L260" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G260" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I260" t="b">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K260" t="b">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" t="n">
         <v>20</v>
       </c>
-      <c r="B261" s="2" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C261" s="2" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D261" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E261" s="2" t="inlineStr">
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F261" s="2" t="inlineStr">
+      <c r="F261" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G261" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L261" s="2" t="inlineStr">
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I261" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K261" t="b">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" t="n">
         <v>20</v>
       </c>
-      <c r="B262" s="2" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C262" s="2" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D262" s="2" t="n">
+      <c r="D262" t="n">
         <v>2</v>
       </c>
-      <c r="E262" s="2" t="inlineStr">
+      <c r="E262" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F262" s="2" t="inlineStr">
+      <c r="F262" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G262" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L262" s="2" t="inlineStr">
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K262" t="b">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" t="n">
         <v>20</v>
       </c>
-      <c r="B263" s="2" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C263" s="2" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D263" s="2" t="n">
+      <c r="D263" t="n">
         <v>3</v>
       </c>
-      <c r="E263" s="2" t="inlineStr">
+      <c r="E263" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F263" s="2" t="inlineStr">
+      <c r="F263" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G263" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L263" s="2" t="inlineStr">
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K263" t="b">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" t="n">
         <v>20</v>
       </c>
-      <c r="B264" s="2" t="inlineStr">
+      <c r="B264" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C264" s="2" t="inlineStr">
+      <c r="C264" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D264" s="2" t="n">
+      <c r="D264" t="n">
         <v>4</v>
       </c>
-      <c r="E264" s="2" t="inlineStr">
+      <c r="E264" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F264" s="2" t="inlineStr">
+      <c r="F264" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G264" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L264" s="2" t="inlineStr">
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
+      <c r="A265" t="n">
         <v>20</v>
       </c>
-      <c r="B265" s="2" t="inlineStr">
+      <c r="B265" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C265" s="2" t="inlineStr">
+      <c r="C265" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D265" s="2" t="n">
+      <c r="D265" t="n">
         <v>5</v>
       </c>
-      <c r="E265" s="2" t="inlineStr">
+      <c r="E265" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F265" s="2" t="inlineStr">
+      <c r="F265" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G265" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2" t="inlineStr">
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
+      <c r="A266" t="n">
         <v>20</v>
       </c>
-      <c r="B266" s="2" t="inlineStr">
+      <c r="B266" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C266" s="2" t="inlineStr">
+      <c r="C266" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D266" s="2" t="n">
+      <c r="D266" t="n">
         <v>6</v>
       </c>
-      <c r="E266" s="2" t="inlineStr">
+      <c r="E266" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F266" s="2" t="inlineStr">
+      <c r="F266" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G266" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2" t="inlineStr">
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="n">
+      <c r="A267" t="n">
         <v>20</v>
       </c>
-      <c r="B267" s="2" t="inlineStr">
+      <c r="B267" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C267" s="2" t="inlineStr">
+      <c r="C267" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D267" s="2" t="n">
+      <c r="D267" t="n">
         <v>7</v>
       </c>
-      <c r="E267" s="2" t="inlineStr">
+      <c r="E267" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F267" s="2" t="inlineStr">
+      <c r="F267" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G267" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2" t="inlineStr">
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K267" t="b">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="n">
+      <c r="A268" t="n">
         <v>20</v>
       </c>
-      <c r="B268" s="2" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C268" s="2" t="inlineStr">
+      <c r="C268" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D268" s="2" t="n">
+      <c r="D268" t="n">
         <v>8</v>
       </c>
-      <c r="E268" s="2" t="inlineStr">
+      <c r="E268" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F268" s="2" t="inlineStr">
+      <c r="F268" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2" t="inlineStr">
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K268" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
+      <c r="A269" t="n">
         <v>20</v>
       </c>
-      <c r="B269" s="2" t="inlineStr">
+      <c r="B269" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C269" s="2" t="inlineStr">
+      <c r="C269" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D269" s="2" t="n">
+      <c r="D269" t="n">
         <v>9</v>
       </c>
-      <c r="E269" s="2" t="inlineStr">
+      <c r="E269" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F269" s="2" t="inlineStr">
+      <c r="F269" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L269" s="2" t="inlineStr">
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K269" t="b">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="n">
+      <c r="A270" t="n">
         <v>20</v>
       </c>
-      <c r="B270" s="2" t="inlineStr">
+      <c r="B270" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C270" s="2" t="inlineStr">
+      <c r="C270" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D270" s="2" t="n">
+      <c r="D270" t="n">
         <v>10</v>
       </c>
-      <c r="E270" s="2" t="inlineStr">
+      <c r="E270" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F270" s="2" t="inlineStr">
+      <c r="F270" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2" t="inlineStr">
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K270" t="b">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="n">
+      <c r="A271" t="n">
         <v>20</v>
       </c>
-      <c r="B271" s="2" t="inlineStr">
+      <c r="B271" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C271" s="2" t="inlineStr">
+      <c r="C271" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D271" s="2" t="n">
+      <c r="D271" t="n">
         <v>11</v>
       </c>
-      <c r="E271" s="2" t="inlineStr">
+      <c r="E271" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F271" s="2" t="inlineStr">
+      <c r="F271" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G271" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L271" s="2" t="inlineStr">
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I271" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K271" t="b">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="2" t="n">
+      <c r="A272" t="n">
         <v>20</v>
       </c>
-      <c r="B272" s="2" t="inlineStr">
+      <c r="B272" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C272" s="2" t="inlineStr">
+      <c r="C272" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D272" s="2" t="n">
+      <c r="D272" t="n">
         <v>12</v>
       </c>
-      <c r="E272" s="2" t="inlineStr">
+      <c r="E272" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F272" s="2" t="inlineStr">
+      <c r="F272" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G272" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H272" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I272" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J272" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K272" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L272" s="2" t="inlineStr">
+      <c r="G272" t="b">
+        <v>1</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I272" t="b">
+        <v>1</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K272" t="b">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="2" t="n">
+      <c r="A273" t="n">
         <v>20</v>
       </c>
-      <c r="B273" s="2" t="inlineStr">
+      <c r="B273" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C273" s="2" t="inlineStr">
+      <c r="C273" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D273" s="2" t="n">
+      <c r="D273" t="n">
         <v>13</v>
       </c>
-      <c r="E273" s="2" t="inlineStr">
+      <c r="E273" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F273" s="2" t="inlineStr">
+      <c r="F273" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G273" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L273" s="2" t="inlineStr">
+      <c r="G273" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I273" t="b">
+        <v>1</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K273" t="b">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -17593,11 +17593,11 @@
         </is>
       </c>
       <c r="I330" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K330" s="2" t="b">
@@ -17645,11 +17645,11 @@
         </is>
       </c>
       <c r="I331" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K331" s="2" t="b">
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F332" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G332" s="2" t="b">
@@ -17697,11 +17697,11 @@
         </is>
       </c>
       <c r="I332" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K332" s="2" t="b">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="L332" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17749,11 +17749,11 @@
         </is>
       </c>
       <c r="I333" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J333" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K333" s="2" t="b">
@@ -24029,7 +24029,7 @@
       </c>
       <c r="F454" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G454" s="2" t="b">
@@ -24053,7 +24053,7 @@
       </c>
       <c r="L454" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24081,7 +24081,7 @@
       </c>
       <c r="F455" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G455" s="2" t="b">
@@ -24105,7 +24105,7 @@
       </c>
       <c r="L455" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24133,7 +24133,7 @@
       </c>
       <c r="F456" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G456" s="2" t="b">
@@ -24157,7 +24157,7 @@
       </c>
       <c r="L456" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24185,7 +24185,7 @@
       </c>
       <c r="F457" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G457" s="2" t="b">
@@ -24209,7 +24209,7 @@
       </c>
       <c r="L457" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24289,7 +24289,7 @@
       </c>
       <c r="F459" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G459" s="2" t="b">
@@ -24313,7 +24313,7 @@
       </c>
       <c r="L459" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25017,81 +25017,81 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G473" t="b">
+        <v>1</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I473" t="b">
+        <v>1</v>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K473" t="b">
+        <v>1</v>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>39</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Strong Interference Now . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Now</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>2</v>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G473" t="b">
-        <v>1</v>
-      </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I473" t="b">
-        <v>1</v>
-      </c>
-      <c r="J473" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K473" t="b">
-        <v>1</v>
-      </c>
-      <c r="L473" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B474" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Now . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C474" s="2" t="inlineStr">
-        <is>
-          <t>Now</t>
-        </is>
-      </c>
-      <c r="D474" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E474" s="2" t="inlineStr">
+      <c r="F474" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F474" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G474" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H474" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I474" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J474" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K474" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L474" s="2" t="inlineStr">
+      <c r="G474" t="b">
+        <v>1</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I474" t="b">
+        <v>1</v>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K474" t="b">
+        <v>1</v>
+      </c>
+      <c r="L474" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
